--- a/timeseries_test2.xlsx
+++ b/timeseries_test2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6842B8-7B12-4085-AC73-900EB39AAFB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEAA0-4ADC-4C94-BBCB-86A09397CC09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -479,23 +479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298392A-9FC0-4855-BC14-9D019F854B13}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AD31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -587,15 +587,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A31" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1237,16 +1237,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1516,16 +1516,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1702,16 +1702,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2353,16 +2353,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2539,16 +2539,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2632,16 +2632,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2725,16 +2725,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2818,16 +2818,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3097,16 +3097,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3283,16 +3283,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.93526928666981868</v>
+        <v>0.5</v>
       </c>
       <c r="C31" s="1">
-        <v>0.55490616890492861</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3376,1407 +3376,6517 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
-      <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
-      <c r="AB93" s="2"/>
-      <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-      <c r="AB94" s="2"/>
-      <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-      <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G32">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H32">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I32">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J32">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K32">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L32">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M32">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N32">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G33">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H33">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I33">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J33">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K33">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L33">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M33">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N33">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G34">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H34">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I34">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J34">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K34">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L34">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M34">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N34">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G35">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H35">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I35">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J35">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K35">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L35">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M35">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N35">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G36">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H36">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I36">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J36">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K36">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L36">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M36">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N36">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G37">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H37">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I37">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J37">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K37">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L37">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M37">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N37">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G38">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H38">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I38">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J38">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K38">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L38">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M38">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N38">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G39">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H39">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I39">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J39">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K39">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L39">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M39">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N39">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G40">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H40">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I40">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J40">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K40">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L40">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M40">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N40">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G41">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H41">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I41">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J41">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K41">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L41">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M41">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N41">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G42">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H42">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I42">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J42">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K42">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L42">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M42">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N42">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1</v>
+      </c>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G43">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H43">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I43">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J43">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K43">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L43">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M43">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N43">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
+        <v>1</v>
+      </c>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G44">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H44">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I44">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J44">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K44">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L44">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M44">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N44">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G45">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H45">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I45">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J45">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K45">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L45">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M45">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N45">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G46">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H46">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I46">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J46">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K46">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L46">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M46">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N46">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G47">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H47">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I47">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J47">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K47">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L47">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M47">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N47">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G48">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H48">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I48">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J48">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K48">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L48">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M48">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N48">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G49">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H49">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I49">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J49">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K49">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L49">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M49">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N49">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G50">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H50">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I50">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J50">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K50">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L50">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M50">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N50">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G51">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H51">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I51">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J51">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K51">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L51">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M51">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N51">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2">
+        <v>1</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G52">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H52">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I52">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J52">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K52">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L52">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M52">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N52">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>1</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1</v>
+      </c>
+      <c r="T52" s="2">
+        <v>1</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
+        <v>1</v>
+      </c>
+      <c r="X52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G53">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H53">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I53">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J53">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K53">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L53">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M53">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N53">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1</v>
+      </c>
+      <c r="T53" s="2">
+        <v>1</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
+        <v>1</v>
+      </c>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G54">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H54">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I54">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J54">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K54">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L54">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M54">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N54">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>1</v>
+      </c>
+      <c r="R54" s="2">
+        <v>1</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1</v>
+      </c>
+      <c r="T54" s="2">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G55">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H55">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I55">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J55">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K55">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L55">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M55">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N55">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G56">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H56">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I56">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J56">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K56">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L56">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M56">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N56">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G57">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H57">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I57">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J57">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K57">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L57">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M57">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N57">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2">
+        <v>1</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G58">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H58">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I58">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J58">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K58">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L58">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M58">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N58">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G59">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H59">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I59">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J59">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K59">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L59">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M59">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N59">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+      <c r="R59" s="2">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G60">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H60">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I60">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J60">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K60">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L60">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M60">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N60">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G61">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H61">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I61">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J61">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K61">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L61">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M61">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N61">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G62">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H62">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I62">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J62">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K62">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L62">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M62">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N62">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1</v>
+      </c>
+      <c r="T62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G63">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H63">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I63">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J63">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K63">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L63">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M63">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N63">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>1</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G64">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H64">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I64">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J64">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K64">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L64">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M64">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N64">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>1</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>1</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G65">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H65">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I65">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J65">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K65">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L65">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M65">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N65">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>1</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2">
+        <v>1</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G66">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H66">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I66">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J66">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K66">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L66">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M66">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N66">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>1</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1</v>
+      </c>
+      <c r="T66" s="2">
+        <v>1</v>
+      </c>
+      <c r="U66" s="2">
+        <v>1</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="W66" s="2">
+        <v>1</v>
+      </c>
+      <c r="X66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G67">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H67">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I67">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J67">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K67">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L67">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M67">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N67">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2">
+        <v>1</v>
+      </c>
+      <c r="S67" s="2">
+        <v>1</v>
+      </c>
+      <c r="T67" s="2">
+        <v>1</v>
+      </c>
+      <c r="U67" s="2">
+        <v>1</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
+      <c r="W67" s="2">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A101" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G68">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H68">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I68">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J68">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K68">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L68">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M68">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N68">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>1</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1</v>
+      </c>
+      <c r="T68" s="2">
+        <v>1</v>
+      </c>
+      <c r="U68" s="2">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="W68" s="2">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G69">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H69">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I69">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J69">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K69">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L69">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M69">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N69">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2">
+        <v>1</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2">
+        <v>1</v>
+      </c>
+      <c r="X69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G70">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H70">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I70">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J70">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K70">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L70">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M70">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N70">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>1</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2">
+        <v>1</v>
+      </c>
+      <c r="U70" s="2">
+        <v>1</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2">
+        <v>1</v>
+      </c>
+      <c r="X70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G71">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H71">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I71">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J71">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K71">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L71">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M71">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N71">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1</v>
+      </c>
+      <c r="S71" s="2">
+        <v>1</v>
+      </c>
+      <c r="T71" s="2">
+        <v>1</v>
+      </c>
+      <c r="U71" s="2">
+        <v>1</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
+      <c r="W71" s="2">
+        <v>1</v>
+      </c>
+      <c r="X71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G72">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H72">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I72">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J72">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K72">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L72">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M72">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N72">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>1</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1</v>
+      </c>
+      <c r="T72" s="2">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G73">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H73">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I73">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J73">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K73">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L73">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M73">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N73">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>1</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1</v>
+      </c>
+      <c r="T73" s="2">
+        <v>1</v>
+      </c>
+      <c r="U73" s="2">
+        <v>1</v>
+      </c>
+      <c r="V73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2">
+        <v>1</v>
+      </c>
+      <c r="X73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G74">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H74">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I74">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J74">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K74">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L74">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M74">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N74">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>1</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1</v>
+      </c>
+      <c r="T74" s="2">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2">
+        <v>1</v>
+      </c>
+      <c r="X74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G75">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H75">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I75">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J75">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K75">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L75">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M75">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N75">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>1</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1</v>
+      </c>
+      <c r="T75" s="2">
+        <v>1</v>
+      </c>
+      <c r="U75" s="2">
+        <v>1</v>
+      </c>
+      <c r="V75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2">
+        <v>1</v>
+      </c>
+      <c r="X75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G76">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H76">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I76">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J76">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K76">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L76">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M76">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N76">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>1</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1</v>
+      </c>
+      <c r="T76" s="2">
+        <v>1</v>
+      </c>
+      <c r="U76" s="2">
+        <v>1</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="W76" s="2">
+        <v>1</v>
+      </c>
+      <c r="X76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G77">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H77">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I77">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J77">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K77">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L77">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M77">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N77">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>1</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2">
+        <v>1</v>
+      </c>
+      <c r="U77" s="2">
+        <v>1</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G78">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H78">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I78">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J78">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K78">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L78">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M78">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N78">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>1</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2">
+        <v>1</v>
+      </c>
+      <c r="T78" s="2">
+        <v>1</v>
+      </c>
+      <c r="U78" s="2">
+        <v>1</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G79">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H79">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I79">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J79">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K79">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L79">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M79">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N79">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>1</v>
+      </c>
+      <c r="R79" s="2">
+        <v>1</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1</v>
+      </c>
+      <c r="T79" s="2">
+        <v>1</v>
+      </c>
+      <c r="U79" s="2">
+        <v>1</v>
+      </c>
+      <c r="V79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2">
+        <v>1</v>
+      </c>
+      <c r="X79" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G80">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H80">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I80">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J80">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K80">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L80">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M80">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N80">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>1</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1</v>
+      </c>
+      <c r="T80" s="2">
+        <v>1</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1</v>
+      </c>
+      <c r="V80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2">
+        <v>1</v>
+      </c>
+      <c r="X80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G81">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H81">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I81">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J81">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K81">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L81">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M81">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N81">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2">
+        <v>1</v>
+      </c>
+      <c r="U81" s="2">
+        <v>1</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1</v>
+      </c>
+      <c r="W81" s="2">
+        <v>1</v>
+      </c>
+      <c r="X81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G82">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H82">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I82">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J82">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K82">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L82">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M82">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N82">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>1</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2">
+        <v>1</v>
+      </c>
+      <c r="U82" s="2">
+        <v>1</v>
+      </c>
+      <c r="V82" s="2">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2">
+        <v>1</v>
+      </c>
+      <c r="X82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G83">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H83">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I83">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J83">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K83">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L83">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M83">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N83">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O83" s="2">
+        <v>1</v>
+      </c>
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>1</v>
+      </c>
+      <c r="R83" s="2">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>1</v>
+      </c>
+      <c r="T83" s="2">
+        <v>1</v>
+      </c>
+      <c r="U83" s="2">
+        <v>1</v>
+      </c>
+      <c r="V83" s="2">
+        <v>1</v>
+      </c>
+      <c r="W83" s="2">
+        <v>1</v>
+      </c>
+      <c r="X83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G84">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H84">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I84">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J84">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K84">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L84">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M84">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N84">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1</v>
+      </c>
+      <c r="R84" s="2">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1</v>
+      </c>
+      <c r="T84" s="2">
+        <v>1</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1</v>
+      </c>
+      <c r="W84" s="2">
+        <v>1</v>
+      </c>
+      <c r="X84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G85">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H85">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I85">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J85">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K85">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L85">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M85">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N85">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="P85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>1</v>
+      </c>
+      <c r="R85" s="2">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>1</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1</v>
+      </c>
+      <c r="U85" s="2">
+        <v>1</v>
+      </c>
+      <c r="V85" s="2">
+        <v>1</v>
+      </c>
+      <c r="W85" s="2">
+        <v>1</v>
+      </c>
+      <c r="X85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G86">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H86">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I86">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J86">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K86">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L86">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M86">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N86">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>1</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2">
+        <v>1</v>
+      </c>
+      <c r="U86" s="2">
+        <v>1</v>
+      </c>
+      <c r="V86" s="2">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G87">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H87">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I87">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J87">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K87">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L87">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M87">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N87">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>1</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
+        <v>1</v>
+      </c>
+      <c r="T87" s="2">
+        <v>1</v>
+      </c>
+      <c r="U87" s="2">
+        <v>1</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2">
+        <v>1</v>
+      </c>
+      <c r="X87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G88">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H88">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I88">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J88">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K88">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L88">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M88">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N88">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>1</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2">
+        <v>1</v>
+      </c>
+      <c r="T88" s="2">
+        <v>1</v>
+      </c>
+      <c r="U88" s="2">
+        <v>1</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1</v>
+      </c>
+      <c r="W88" s="2">
+        <v>1</v>
+      </c>
+      <c r="X88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G89">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H89">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I89">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J89">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K89">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L89">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M89">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N89">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>1</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2">
+        <v>1</v>
+      </c>
+      <c r="T89" s="2">
+        <v>1</v>
+      </c>
+      <c r="U89" s="2">
+        <v>1</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G90">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H90">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I90">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J90">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K90">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L90">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M90">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N90">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>1</v>
+      </c>
+      <c r="R90" s="2">
+        <v>1</v>
+      </c>
+      <c r="S90" s="2">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2">
+        <v>1</v>
+      </c>
+      <c r="U90" s="2">
+        <v>1</v>
+      </c>
+      <c r="V90" s="2">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G91">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H91">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I91">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J91">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K91">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L91">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M91">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N91">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>1</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1</v>
+      </c>
+      <c r="U91" s="2">
+        <v>1</v>
+      </c>
+      <c r="V91" s="2">
+        <v>1</v>
+      </c>
+      <c r="W91" s="2">
+        <v>1</v>
+      </c>
+      <c r="X91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G92">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H92">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I92">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J92">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K92">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L92">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M92">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N92">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1</v>
+      </c>
+      <c r="T92" s="2">
+        <v>1</v>
+      </c>
+      <c r="U92" s="2">
+        <v>1</v>
+      </c>
+      <c r="V92" s="2">
+        <v>1</v>
+      </c>
+      <c r="W92" s="2">
+        <v>1</v>
+      </c>
+      <c r="X92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G93">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H93">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I93">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J93">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K93">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L93">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M93">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N93">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1</v>
+      </c>
+      <c r="U93" s="2">
+        <v>1</v>
+      </c>
+      <c r="V93" s="2">
+        <v>1</v>
+      </c>
+      <c r="W93" s="2">
+        <v>1</v>
+      </c>
+      <c r="X93" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G94">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H94">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I94">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J94">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K94">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L94">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M94">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N94">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>1</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1</v>
+      </c>
+      <c r="U94" s="2">
+        <v>1</v>
+      </c>
+      <c r="V94" s="2">
+        <v>1</v>
+      </c>
+      <c r="W94" s="2">
+        <v>1</v>
+      </c>
+      <c r="X94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G95">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H95">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I95">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J95">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K95">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L95">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M95">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N95">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1</v>
+      </c>
+      <c r="P95" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>1</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+      <c r="S95" s="2">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2">
+        <v>1</v>
+      </c>
+      <c r="U95" s="2">
+        <v>1</v>
+      </c>
+      <c r="V95" s="2">
+        <v>1</v>
+      </c>
+      <c r="W95" s="2">
+        <v>1</v>
+      </c>
+      <c r="X95" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G96">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H96">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I96">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J96">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K96">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L96">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M96">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N96">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>1</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="S96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" s="2">
+        <v>1</v>
+      </c>
+      <c r="U96" s="2">
+        <v>1</v>
+      </c>
+      <c r="V96" s="2">
+        <v>1</v>
+      </c>
+      <c r="W96" s="2">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G97">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H97">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I97">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J97">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K97">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L97">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M97">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N97">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>1</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+      <c r="S97" s="2">
+        <v>1</v>
+      </c>
+      <c r="T97" s="2">
+        <v>1</v>
+      </c>
+      <c r="U97" s="2">
+        <v>1</v>
+      </c>
+      <c r="V97" s="2">
+        <v>1</v>
+      </c>
+      <c r="W97" s="2">
+        <v>1</v>
+      </c>
+      <c r="X97" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G98">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H98">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I98">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J98">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K98">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L98">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M98">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N98">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O98" s="2">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>1</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+      <c r="S98" s="2">
+        <v>1</v>
+      </c>
+      <c r="T98" s="2">
+        <v>1</v>
+      </c>
+      <c r="U98" s="2">
+        <v>1</v>
+      </c>
+      <c r="V98" s="2">
+        <v>1</v>
+      </c>
+      <c r="W98" s="2">
+        <v>1</v>
+      </c>
+      <c r="X98" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G99">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H99">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I99">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J99">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K99">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L99">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M99">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N99">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O99" s="2">
+        <v>1</v>
+      </c>
+      <c r="P99" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>1</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="S99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1</v>
+      </c>
+      <c r="V99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99" s="2">
+        <v>1</v>
+      </c>
+      <c r="X99" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G100">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H100">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I100">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J100">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K100">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L100">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M100">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N100">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O100" s="2">
+        <v>1</v>
+      </c>
+      <c r="P100" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>1</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+      <c r="S100" s="2">
+        <v>1</v>
+      </c>
+      <c r="T100" s="2">
+        <v>1</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1</v>
+      </c>
+      <c r="V100" s="2">
+        <v>1</v>
+      </c>
+      <c r="W100" s="2">
+        <v>1</v>
+      </c>
+      <c r="X100" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="G101">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="H101">
+        <v>13.834982441223223</v>
+      </c>
+      <c r="I101">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="J101">
+        <v>24.54255092703842</v>
+      </c>
+      <c r="K101">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="L101">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="M101">
+        <v>19.188766684130822</v>
+      </c>
+      <c r="N101">
+        <v>7.2751915719893541</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>1</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="S101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1</v>
+      </c>
+      <c r="V101" s="2">
+        <v>1</v>
+      </c>
+      <c r="W101" s="2">
+        <v>1</v>
+      </c>
+      <c r="X101" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="O102" s="2"/>

--- a/timeseries_test2.xlsx
+++ b/timeseries_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEAA0-4ADC-4C94-BBCB-86A09397CC09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A4C22-CBE0-42A7-BFDD-2D9BCF336F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C101"/>
+      <selection activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0.5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0.5</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0.5</v>
       </c>
       <c r="C21" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>0.5</v>
       </c>
       <c r="C22" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0.5</v>
       </c>
       <c r="C24" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0.5</v>
       </c>
       <c r="C28" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0.5</v>
       </c>
       <c r="C29" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0.5</v>
       </c>
       <c r="C30" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>0.5</v>
       </c>
       <c r="C31" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0.5</v>
       </c>
       <c r="C32" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0.5</v>
       </c>
       <c r="C34" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0.5</v>
       </c>
       <c r="C35" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0.5</v>
       </c>
       <c r="C37" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0.5</v>
       </c>
       <c r="C38" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0.5</v>
       </c>
       <c r="C39" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0.5</v>
       </c>
       <c r="C43" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0.5</v>
       </c>
       <c r="C44" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0.5</v>
       </c>
       <c r="C45" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0.5</v>
       </c>
       <c r="C46" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0.5</v>
       </c>
       <c r="C47" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0.5</v>
       </c>
       <c r="C48" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>0.5</v>
       </c>
       <c r="C49" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0.5</v>
       </c>
       <c r="C50" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0.5</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0.5</v>
       </c>
       <c r="C52" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0.5</v>
       </c>
       <c r="C53" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0.5</v>
       </c>
       <c r="C54" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0.5</v>
       </c>
       <c r="C55" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         <v>0.5</v>
       </c>
       <c r="C56" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>0.5</v>
       </c>
       <c r="C57" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>0.5</v>
       </c>
       <c r="C58" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0.5</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0.5</v>
       </c>
       <c r="C60" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0.5</v>
       </c>
       <c r="C61" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0.5</v>
       </c>
       <c r="C62" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0.5</v>
       </c>
       <c r="C63" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>0.5</v>
       </c>
       <c r="C64" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0.5</v>
       </c>
       <c r="C65" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0.5</v>
       </c>
       <c r="C66" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0.5</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0.5</v>
       </c>
       <c r="C68" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>0.5</v>
       </c>
       <c r="C69" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6919,7 +6919,7 @@
         <v>0.5</v>
       </c>
       <c r="C70" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>0.5</v>
       </c>
       <c r="C71" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>0.5</v>
       </c>
       <c r="C72" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0.5</v>
       </c>
       <c r="C73" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0.5</v>
       </c>
       <c r="C74" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>0.5</v>
       </c>
       <c r="C75" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7477,7 +7477,7 @@
         <v>0.5</v>
       </c>
       <c r="C76" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0.5</v>
       </c>
       <c r="C77" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>0.5</v>
       </c>
       <c r="C78" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0.5</v>
       </c>
       <c r="C79" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0.5</v>
       </c>
       <c r="C80" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>0.5</v>
       </c>
       <c r="C81" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>0.5</v>
       </c>
       <c r="C83" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0.5</v>
       </c>
       <c r="C84" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -8314,7 +8314,7 @@
         <v>0.5</v>
       </c>
       <c r="C85" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0.5</v>
       </c>
       <c r="C86" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>0.5</v>
       </c>
       <c r="C87" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0.5</v>
       </c>
       <c r="C88" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>0.5</v>
       </c>
       <c r="C89" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>0.5</v>
       </c>
       <c r="C90" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>0.5</v>
       </c>
       <c r="C92" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0.5</v>
       </c>
       <c r="C93" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0.5</v>
       </c>
       <c r="C95" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>0.5</v>
       </c>
       <c r="C96" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0.5</v>
       </c>
       <c r="C97" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9523,7 +9523,7 @@
         <v>0.5</v>
       </c>
       <c r="C98" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0.5</v>
       </c>
       <c r="C99" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0.5</v>
       </c>
       <c r="C100" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0.5</v>
       </c>
       <c r="C101" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D101">
         <v>0</v>

--- a/timeseries_test2.xlsx
+++ b/timeseries_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A4C22-CBE0-42A7-BFDD-2D9BCF336F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FDF93-21B1-45A0-B082-EE168E84FA6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298392A-9FC0-4855-BC14-9D019F854B13}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:AD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/timeseries_test2.xlsx
+++ b/timeseries_test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FDF93-21B1-45A0-B082-EE168E84FA6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B1F69E-147E-44A3-AFBC-BE0FE395799D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298392A-9FC0-4855-BC14-9D019F854B13}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AD101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C2" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C3" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C5" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C6" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C7" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C9" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C10" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C11" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C12" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C13" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C14" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C15" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C16" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C17" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C18" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C19" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C20" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C21" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C22" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C23" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C24" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C25" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C26" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C27" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C28" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C29" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C30" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C31" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3382,10 +3382,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C32" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C33" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C34" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C35" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C36" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3847,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C37" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C38" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C39" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C40" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C41" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C42" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4405,10 +4405,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C43" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4498,10 +4498,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C44" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4591,10 +4591,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C45" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C46" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4777,10 +4777,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C47" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4870,10 +4870,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C48" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4963,10 +4963,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C49" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5056,10 +5056,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C50" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C51" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5242,10 +5242,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C52" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C53" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C54" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5521,10 +5521,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C55" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5614,10 +5614,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C56" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C57" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C58" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5893,10 +5893,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C59" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5986,10 +5986,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C60" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C61" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6172,10 +6172,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C62" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6265,10 +6265,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C63" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6358,10 +6358,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C64" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C65" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6544,10 +6544,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C66" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C67" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C68" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6823,10 +6823,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C69" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6916,10 +6916,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C70" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7009,10 +7009,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C71" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7102,10 +7102,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C72" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7195,10 +7195,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C73" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7288,10 +7288,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C74" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C75" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7474,10 +7474,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C76" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C77" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7660,10 +7660,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C78" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7753,10 +7753,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C79" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7846,10 +7846,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C80" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7939,10 +7939,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C81" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -8032,10 +8032,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C82" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8125,10 +8125,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C83" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C84" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -8311,10 +8311,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C85" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8404,10 +8404,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C86" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8497,10 +8497,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C87" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C88" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C89" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8776,10 +8776,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C90" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C91" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8962,10 +8962,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C92" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9055,10 +9055,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C93" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C94" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9241,10 +9241,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C95" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -9334,10 +9334,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C96" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C97" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9520,10 +9520,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C98" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -9613,10 +9613,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C99" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -9706,10 +9706,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C100" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -9799,10 +9799,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>0.5</v>
+        <v>0.66800770566945911</v>
       </c>
       <c r="C101" s="1">
-        <v>0.3</v>
+        <v>0.26512837553579682</v>
       </c>
       <c r="D101">
         <v>0</v>
